--- a/downloaded_files/MEPS219_Tutorial-35499.xlsx
+++ b/downloaded_files/MEPS219_Tutorial-35499.xlsx
@@ -765,7 +765,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.200625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1006,7 +1006,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6648658565</x:v>
+        <x:v>45927.5155511227</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>

--- a/downloaded_files/MEPS219_Tutorial-35499.xlsx
+++ b/downloaded_files/MEPS219_Tutorial-35499.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -196,15 +196,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman mohamed abdelfatah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على احمد على برعى على حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali ahmed ali borai ali hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210255</x:t>
@@ -455,7 +446,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -755,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1450,7 +1441,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45909.4829779282</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1482,7 +1473,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4829779282</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1514,7 +1505,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45906.6647546296</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1546,7 +1537,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647546296</x:v>
+        <x:v>45906.4183537384</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1578,7 +1569,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4183537384</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1610,7 +1601,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45906.6650598032</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1642,7 +1633,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6650598032</x:v>
+        <x:v>45907.6748113079</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1674,7 +1665,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6748113079</x:v>
+        <x:v>45906.4142712153</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1706,7 +1697,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4142712153</x:v>
+        <x:v>45906.4144615741</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1738,7 +1729,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4144615741</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1770,7 +1761,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45906.4192472569</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1802,7 +1793,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4192472569</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1834,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1866,7 +1857,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1898,7 +1889,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.6644524306</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1915,38 +1906,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45906.6644524306</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS219_Tutorial-35499.xlsx
+++ b/downloaded_files/MEPS219_Tutorial-35499.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -304,6 +304,15 @@
   </x:si>
   <x:si>
     <x:t>Malak hany yousry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منه الله حمدي حسن اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mennatullah hamdy hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210333</x:t>
@@ -446,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -746,7 +755,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1825,7 +1834,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4163704861</x:v>
+        <x:v>45930.3491172454</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.4163704861</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1906,6 +1915,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45906.6644524306</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
